--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2073.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2073.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.156861318747904</v>
+        <v>1.260118246078491</v>
       </c>
       <c r="B1">
-        <v>3.261038258315864</v>
+        <v>3.884607791900635</v>
       </c>
       <c r="C1">
-        <v>4.07521803066118</v>
+        <v>3.630458354949951</v>
       </c>
       <c r="D1">
-        <v>3.246672454216133</v>
+        <v>3.429226636886597</v>
       </c>
       <c r="E1">
-        <v>1.195452260391775</v>
+        <v>1.075165867805481</v>
       </c>
     </row>
   </sheetData>
